--- a/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
+++ b/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/francisco_pons_undp_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A21ED39-ED23-4D98-ABD1-92C5DD06A09B}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A45F86E-A135-40E4-94F1-2D062AF23308}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -101,14 +104,14 @@
     <t>https://open.undp.org/projects/00137005</t>
   </si>
   <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>1,000,000 anual users of the public transport system that would be positively impacted with the new electric buses</t>
+  </si>
+  <si>
     <t>JP:10000000
 UNDP: 804250</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>1,000,000 anual users of the public transport system that would be positively impacted with the new electric buses</t>
   </si>
   <si>
     <t>Joint SDG Fund</t>
@@ -550,18 +553,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -622,6 +613,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,7 +935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -959,230 +962,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45.75">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="41" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="74.25" customHeight="1">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>127688</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="10">
+        <v>804250</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
+        <v>1000000</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27">
-        <v>1000000</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="23">
         <v>0</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="23">
         <v>5000</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>0</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <v>100000</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="36" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="106.5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="34" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1257,16 +1262,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1281,204 +1286,204 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>127688</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
         <v>1000000</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="23">
         <v>0</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="23">
         <v>5000</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="34" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>0</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <v>100000</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="36" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="106.5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="34" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1591,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1606,7 +1611,7 @@
         <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -1740,7 +1745,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
@@ -1751,7 +1756,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="42"/>
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="42"/>
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -1769,7 +1774,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -1780,7 +1785,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -1789,7 +1794,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -1798,7 +1803,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -1807,16 +1812,16 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="44" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
@@ -1827,7 +1832,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="44"/>
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1841,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
@@ -1847,7 +1852,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -1856,7 +1861,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -1898,26 +1903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2166,8 +2151,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890B40F-82E5-43E8-8F6A-9E1C03EA8085}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2175,5 +2180,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890B40F-82E5-43E8-8F6A-9E1C03EA8085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
--- a/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
+++ b/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/francisco_pons_undp_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A45F86E-A135-40E4-94F1-2D062AF23308}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24E77D4-2F28-40DD-9907-27574F8AA953}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -98,13 +95,22 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>ONU/21/001 Financiación innovadora para soluciones de tecnología limpia en el sector de las energías renovables de Uruguay: El Fondo de Innovación de Energías Renovables (REIF)</t>
   </si>
   <si>
     <t>https://open.undp.org/projects/00137005</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Transportation and E-mobility Services</t>
   </si>
   <si>
     <t>1,000,000 anual users of the public transport system that would be positively impacted with the new electric buses</t>
@@ -120,40 +126,58 @@
     <t>Non-VF</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>5000 people vinculated to the hydrogen development</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>100,000 approximated stakeholders related to the activity areas of feasibility studies</t>
+  </si>
+  <si>
+    <t>Financing leveraged by REIF from local financial institutions (USD)</t>
+  </si>
+  <si>
+    <t>n/a since it depends on the type of investment projects pending to be approved by the fund. However, we estimate 10 private projects during the first year</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
     <t>Scale up energy finance</t>
   </si>
   <si>
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>5000 people vinculated to the hydrogen development</t>
-  </si>
-  <si>
     <t>Incentives and Support</t>
   </si>
   <si>
     <t>Hydrogen</t>
   </si>
   <si>
-    <t>100,000 approximated stakeholders related to the activity areas of feasibility studies</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>Financing leveraged by REIF from local financial institutions (USD)</t>
-  </si>
-  <si>
-    <t>n/a since it depends on the type of investment projects pending to be approved by the fund. However, we estimate 10 private projects during the first year</t>
-  </si>
-  <si>
     <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Cumulative number of electric buses</t>
@@ -175,64 +199,73 @@
 </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -247,10 +280,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -259,16 +292,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -281,12 +317,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,49 +368,26 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -377,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,22 +494,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -515,23 +523,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -543,51 +551,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -596,35 +610,54 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,288 +964,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12E42D0-818B-46E8-BEA7-6F8BDF1BD29A}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5"/>
-    <col min="13" max="13" width="10.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="11.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="11" style="5" customWidth="1"/>
-    <col min="19" max="19" width="29" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
+    <col min="20" max="20" width="29" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45.75">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" ht="30.75">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" ht="74.25" customHeight="1">
-      <c r="A2" s="27">
+      <c r="T1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="74.25" customHeight="1">
+      <c r="A2" s="24">
         <v>127688</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7">
+        <v>804250</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="39"/>
+      <c r="U3" s="48"/>
+    </row>
+    <row r="4" spans="1:21" ht="60.75">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="48"/>
+    </row>
+    <row r="5" spans="1:21" ht="106.5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10">
-        <v>804250</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
+      <c r="F5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="106.5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="32" t="s">
+      <c r="O5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="32" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="18"/>
+      <c r="R5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="48"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="48"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{CB4C0856-1635-4EC1-800C-50572A9EA580}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{5D93EBFF-16C8-4329-839F-03302C8F7520}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{5D93EBFF-16C8-4329-839F-03302C8F7520}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{F5137EC0-9FAD-4D4D-B8F7-37A7F05F7D83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{F5137EC0-9FAD-4D4D-B8F7-37A7F05F7D83}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{DCAA5A65-C3CE-4307-9C81-AD90282360B3}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{5FC097BC-6E9F-410C-9FEE-8643A4EC11BD}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{5FC097BC-6E9F-410C-9FEE-8643A4EC11BD}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{396C138D-AC95-4329-AFA0-8701CDC6AF53}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{7822E810-027A-4BFE-BD4C-808273C036CE}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{9AA9BD5E-7CEB-442C-A565-7096A7D8E1F3}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{EB839E9D-0FA9-4AB6-8415-8F65D2864653}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{D2B7A7CE-C158-4C1A-B713-28074B7A112E}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{E357C178-F4F2-4BA6-902A-D89DEF7DAFEC}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1225,7 +1270,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBD69D51-BE5E-4C1B-BDB6-1A2D02810B48}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -1246,252 +1291,252 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="5" customWidth="1"/>
-    <col min="11" max="17" width="8.85546875" style="5"/>
-    <col min="18" max="18" width="11" style="5" customWidth="1"/>
-    <col min="19" max="19" width="29" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
+    <col min="11" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="11" style="2" customWidth="1"/>
+    <col min="19" max="19" width="29" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="27">
+      <c r="A2" s="24">
         <v>127688</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" ht="45.75">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
+      <c r="F3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="60.75">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32" t="s">
+      <c r="H4" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="106.5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="23">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="106.5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>36</v>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="B8" s="17"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1521,7 +1566,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73FFED3B-9903-4B82-838B-16B0CDA2E3BD}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -1542,46 +1587,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1589,113 +1634,113 @@
       <c r="A2">
         <v>127688</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="15">
+        <v>46</v>
+      </c>
+      <c r="G2" s="12">
         <v>33</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="12">
         <v>150</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>39</v>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="15">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>2</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>39</v>
+      <c r="I3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60.75">
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="15">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>39</v>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="106.5">
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>14000000</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>14000000</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>39</v>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45.75">
-      <c r="B8" s="17" t="s">
-        <v>43</v>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1708,7 +1753,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -1720,189 +1765,220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="42"/>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42"/>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B1" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="43" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="43"/>
-      <c r="B6" t="s">
+      <c r="B4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="49" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="43"/>
-      <c r="B7" t="s">
+      <c r="B5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="43"/>
-      <c r="B8" t="s">
+      <c r="B6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="43"/>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B7" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="44" t="s">
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="49" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="44"/>
-      <c r="B11" t="s">
+      <c r="B9" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="45" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B11" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="45"/>
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="45"/>
-      <c r="B14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="49" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B15" s="50" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2151,28 +2227,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890B40F-82E5-43E8-8F6A-9E1C03EA8085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2180,5 +2236,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890B40F-82E5-43E8-8F6A-9E1C03EA8085}"/>
 </file>
--- a/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
+++ b/01_Input/00_CO Validation/Uruguay - Energy projects.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/francisco_pons_undp_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24E77D4-2F28-40DD-9907-27574F8AA953}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{6D6471CB-FAF8-4968-BD43-6FD4323F67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D91A276-5130-4209-AB15-6BDF322A7B73}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
   <si>
     <t>Project ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Project Description</t>
+  </si>
+  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -104,10 +107,17 @@
     <t>Policy Population</t>
   </si>
   <si>
-    <t>ONU/21/001 Financiación innovadora para soluciones de tecnología limpia en el sector de las energías renovables de Uruguay: El Fondo de Innovación de Energías Renovables (REIF)</t>
+    <t>Gender Marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONU/21/001 Innovative Finance for Clean Tech Solutions in Uruguay´s Renewable Energy Sector: The Renewable Energy Innovation Fund (REIF)
+</t>
   </si>
   <si>
     <t>https://open.undp.org/projects/00137005</t>
+  </si>
+  <si>
+    <t>The program seeks to decarbonize the industrial and transportation sectors, promote universal access to renewable energy sources, and increase innovation and competitiveness in the energy sector by reducing energy costs and increasing the participation of women in the clean energy economy.</t>
   </si>
   <si>
     <t>Transportation and E-mobility Services</t>
@@ -129,15 +139,33 @@
     <t>Close the gap on energy access</t>
   </si>
   <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>GEN2</t>
+  </si>
+  <si>
     <t>Electricity Access</t>
   </si>
   <si>
     <t>5000 people vinculated to the hydrogen development</t>
   </si>
   <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
     <t>100,000 approximated stakeholders related to the activity areas of feasibility studies</t>
   </si>
   <si>
@@ -147,28 +175,79 @@
     <t>n/a since it depends on the type of investment projects pending to be approved by the fund. However, we estimate 10 private projects during the first year</t>
   </si>
   <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
     <t>Financing Model</t>
   </si>
   <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>kt of CO2 equivalent</t>
+  </si>
+  <si>
+    <t>URU/17/G32 MOVÉS: Towards a sustainable and efficient urban mobility system in Uruguay</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/es/uruguay/proyectos/moves-hacia-un-sistema-de-movilidad-urbana-sostenible-y-eficiente-en-uruguay</t>
+  </si>
+  <si>
+    <t>The project aimed to empower relevant stakeholders in the urban transport sector to carry out a strategic transition to low-carbon passenger and freight mobility. It tested the effectiveness of a set of innovative policies and measures and launched a reform process to establish an enabling environment for urban transport policy innovation. It also facilitated the reform of the framework of urban transport regulations and incentives, focusing on public transport quality, the promotion of non-motorized transport modes, the adoption of electric vehicles in the public transport and urban distribution services sectors, cooperation between authorities, relevant stakeholders, and GHG emission control systems.</t>
+  </si>
+  <si>
+    <t>13 new partnerships developed for improving energy efficiency in transport</t>
+  </si>
+  <si>
+    <t>Partnerships signed between government and companies interested in using EVs.</t>
+  </si>
+  <si>
+    <t>Global Environment Fund Truste</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Accelerating Just Energy Transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t>Number of e-buses co-financed and operational</t>
+  </si>
+  <si>
+    <t>New e-bus subsidy increased from original scope of 5 to 32 e-buses now in use, with $14M co-investments.</t>
+  </si>
+  <si>
+    <t>Number of companies participating in e-vehicle trials</t>
+  </si>
+  <si>
+    <t>Rental trials for e-bikes/tricycles in logistics. 3 years of 100% EV sales growth.</t>
+  </si>
+  <si>
+    <t>Number of formalized coordination bodies on transport energy efficiency</t>
+  </si>
+  <si>
+    <t>Established National Commission on Transport Energy Efficiency to ensure sustainability of results.</t>
+  </si>
+  <si>
+    <t>Number of revised regulations supporting e-mobility</t>
+  </si>
+  <si>
+    <t>Revised policies on tax, incentives, vehicle labeling, battery/ end-of-life management, etc.</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>ONU/21/001 Financiación innovadora para soluciones de tecnología limpia en el sector de las energías renovables de Uruguay: El Fondo de Innovación de Energías Renovables (REIF)</t>
+  </si>
+  <si>
     <t>Other Energy Services</t>
   </si>
   <si>
     <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
   </si>
   <si>
     <t>Hydrogen</t>
@@ -247,9 +326,6 @@
     <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
   </si>
   <si>
-    <t>Energy Efficiency Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
   </si>
   <si>
@@ -260,9 +336,6 @@
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing support </t>
   </si>
   <si>
     <t xml:space="preserve">Support for the development of market ecosystem </t>
@@ -314,10 +387,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +455,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -507,12 +594,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -613,9 +711,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +744,149 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -964,38 +1202,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12E42D0-818B-46E8-BEA7-6F8BDF1BD29A}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="29" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="2"/>
+    <col min="2" max="4" width="41.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="2" customWidth="1"/>
+    <col min="21" max="21" width="29" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75">
+    <row r="1" spans="1:23" ht="30.75">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1005,263 +1245,585 @@
       <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="43" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="74.25" customHeight="1">
-      <c r="A2" s="24">
+      <c r="V1" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="74.25" customHeight="1">
+      <c r="A2" s="53">
         <v>127688</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="72">
         <v>804250</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20">
+      <c r="F2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="50">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
         <v>1000000</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="38"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="45.75">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="60.75">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="M4" s="45"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="106.5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>5670350</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="53"/>
+      <c r="L5" s="67">
+        <v>0.31</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="57"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50">
+        <v>24658</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="1:23" ht="60.75" customHeight="1">
+      <c r="A7" s="81">
+        <v>101784</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="85">
+        <v>1720933</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>13</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="76.5">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="50">
+        <v>5</v>
+      </c>
+      <c r="I8" s="50">
+        <v>32</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="64"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="60.75">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="48"/>
-    </row>
-    <row r="3" spans="1:21" ht="45.75">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="G9" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="50">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="48"/>
-    </row>
-    <row r="4" spans="1:21" ht="60.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="I9" s="50">
+        <v>130</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="76.5">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>1</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="64"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="48"/>
-    </row>
-    <row r="5" spans="1:21" ht="106.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="29" t="s">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="48"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="B9" s="15"/>
+    </row>
+    <row r="11" spans="1:23" ht="76.5">
+      <c r="A11" s="91"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="50">
+        <v>4</v>
+      </c>
+      <c r="I11" s="50">
+        <v>8</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="64"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="66"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50">
+        <v>5816</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{5D93EBFF-16C8-4329-839F-03302C8F7520}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{5D93EBFF-16C8-4329-839F-03302C8F7520}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{F5137EC0-9FAD-4D4D-B8F7-37A7F05F7D83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 Q12" xr:uid="{F5137EC0-9FAD-4D4D-B8F7-37A7F05F7D83}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{5FC097BC-6E9F-410C-9FEE-8643A4EC11BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6 O12" xr:uid="{5FC097BC-6E9F-410C-9FEE-8643A4EC11BD}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{396C138D-AC95-4329-AFA0-8701CDC6AF53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{396C138D-AC95-4329-AFA0-8701CDC6AF53}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{7822E810-027A-4BFE-BD4C-808273C036CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6 N12" xr:uid="{7822E810-027A-4BFE-BD4C-808273C036CE}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{9AA9BD5E-7CEB-442C-A565-7096A7D8E1F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6 U12" xr:uid="{9AA9BD5E-7CEB-442C-A565-7096A7D8E1F3}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{EB839E9D-0FA9-4AB6-8415-8F65D2864653}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6 M12" xr:uid="{EB839E9D-0FA9-4AB6-8415-8F65D2864653}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{D2B7A7CE-C158-4C1A-B713-28074B7A112E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6 S12" xr:uid="{D2B7A7CE-C158-4C1A-B713-28074B7A112E}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{E357C178-F4F2-4BA6-902A-D89DEF7DAFEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6 T12" xr:uid="{E357C178-F4F2-4BA6-902A-D89DEF7DAFEC}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2D6E577A-3B00-4EC6-BE6C-BF3479043251}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{C77DA398-7847-4A50-94B3-709EDED234A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1272,7 +1834,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>F2:F12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1285,7 +1847,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1317,50 +1879,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N1" s="19"/>
       <c r="O1" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="17"/>
     </row>
@@ -1369,19 +1931,19 @@
         <v>127688</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20">
@@ -1389,19 +1951,19 @@
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
@@ -1413,10 +1975,10 @@
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
       <c r="E3" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -1426,26 +1988,26 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60.75">
@@ -1454,10 +2016,10 @@
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -1466,29 +2028,29 @@
         <v>100000</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="29"/>
       <c r="R4" s="29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="106.5">
@@ -1497,39 +2059,39 @@
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
       <c r="E5" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="29" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1581,7 +2143,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1609,25 +2171,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="91.5">
@@ -1635,19 +2197,19 @@
         <v>127688</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G2" s="12">
         <v>33</v>
@@ -1656,21 +2218,21 @@
         <v>150</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
@@ -1679,21 +2241,21 @@
         <v>2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60.75">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -1702,21 +2264,21 @@
         <v>3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="106.5">
       <c r="E5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -1725,18 +2287,18 @@
         <v>14000000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45.75">
       <c r="B8" s="14" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
@@ -1768,7 +2330,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1778,179 +2340,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="39" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="30.75">
-      <c r="A2" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>52</v>
+      <c r="A2" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>54</v>
+      <c r="A3" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45.75">
-      <c r="A6" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75">
-      <c r="A7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75">
-      <c r="A8" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75">
-      <c r="A9" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.75">
-      <c r="A12" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
+      <c r="B14" s="98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45.75">
-      <c r="A19" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.75">
-      <c r="A21" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>88</v>
+      <c r="B22" s="98" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1970,17 +2532,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2005,6 +2558,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2084,6 +2638,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2227,14 +2786,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CF273B-330E-42C5-89D3-401E827D2BBE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4890B40F-82E5-43E8-8F6A-9E1C03EA8085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>